--- a/04_Machine_Learning/recursos/Clasificadores Weka.xlsx
+++ b/04_Machine_Learning/recursos/Clasificadores Weka.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="135">
   <si>
     <t>Clasificador Weka</t>
   </si>
@@ -371,9 +371,6 @@
     <t>MultiClassClassifier constituye un metaclasificador para manejar conjuntos de datos multiclase con clasificadores de 2 clases. Este clasificador también es capaz de aplicar códigos de salida de corrección de errores para aumentar la precisión.</t>
   </si>
   <si>
-    <t>MultiClassClassifierUpdateable constituye un metaclasificador para manejar conjuntos de datos multiclase con clasificadores de 2 clases. Este clasificador también es capaz de aplicar códigos de salida de corrección de errores para aumentar la precisión. El clasificador base debe ser un clasificador actualizable</t>
-  </si>
-  <si>
     <t>MultiScheme constituye una clase para seleccionar un clasificador entre varios, utilizando validación cruzada en los datos de entrenamiento o el rendimiento en los datos de entrenamiento. El rendimiento se mide en función del porcentaje de aciertos (clasificación) o del error medio cuadrático (regresión).</t>
   </si>
   <si>
@@ -396,6 +393,49 @@
   </si>
   <si>
     <t>Envoltorio genérico alrededor de cualquier clasificador para permitir soporte de instancias ponderadas (weighted instances). Utiliza el remuestreo con pesos si el clasificador base no implementa la interfaz weka.core.WeightedInstancesHandler y hay otros pesos de instancias 1.0 presentes. De forma predeterminada, los datos de entrenamiento se pasan al clasificador base si puede manejar pesos de instancia. Sin embargo, es posible forzar el uso del remuestreo con pesos también.</t>
+  </si>
+  <si>
+    <t>Constituye la clase para la construcción y uso de un clasificador de mayoría de una tabla de decisión simple.</t>
+  </si>
+  <si>
+    <t>Implementa el aprendizaje de reglas proposicionales Repeated Incremental Pruning to Produce Error Reduction (RIPPER) o la poda incremental repetida para producir reducción de errores, que fue propuesto por William W. Cohen como una versión optimizada de IREP.</t>
+  </si>
+  <si>
+    <t>Constituye la clase para construir y usar un clasificador 1R; en otras palabras, utiliza el atributo de error mínimo para la predicción, discretizando los atributos numéricos.</t>
+  </si>
+  <si>
+    <t>Utiliza dividir y conquistar. Construye un árbol de decisión C4.5 parcial. Constituye la clase para generar una lista de decisiones PART. Crea un árbol de decisión C4.5 parcial en cada iteración y convierte la "mejor" hoja en una regla.</t>
+  </si>
+  <si>
+    <t>Constituye la clase para construir y usar un clasificador 0-R. Predice la media (para una clase numérica) o la moda (para una clase nominal).</t>
+  </si>
+  <si>
+    <t>Constituye la clase para construir y usar un tocón de decisión. Generalmente se utiliza en conjunción con un algoritmo de boosting. Realiza regresión (basada en el error cuadrático medio) o clasificación (basada en la entropía).</t>
+  </si>
+  <si>
+    <t>Un árbol Hoeffding (VFDT) es un algoritmo de inducción de árbol de decisión incremental que es capaz de aprender de flujos de datos masivos, suponiendo que la distribución de la generación de los ejemplos no cambian con el tiempo. Los árboles Hoeffding explotan el hecho de que una pequeña muestra puede a menudo ser suficiente para elegir un atributo de división óptimo. Esta idea está apoyada matemáticamente por el límite de Hoeffding, que cuantifica el número de observaciones (en nuestro caso, ejemplos) necesarios para estimar algunas estadísticas dentro de una precisión prescrita (en nuestro caso, la bondad de un atributo).
+Una característica teóricamente atractiva de Hoeffding Trees no compartida por otros aprendizajes por árboles de decisión incremental es que tiene garantías sólidas de rendimiento. Utilizando el límite de Hoeffding se puede demostrar que su salida es asintóticamente casi idéntica a la de un aprendizaje no incremental usando infinidad de ejemplos.</t>
+  </si>
+  <si>
+    <t>Constituye la clase para generar un árbol de decisión C4.5 podado o no podado.</t>
+  </si>
+  <si>
+    <t>Árboles de modelos logísticos o Logistic model trees (LMT). Clasificador para la construcción de 'árboles de modelos logísticos', que son árboles de clasificación con funciones de regresión logística en las hojas. El algoritmo puede manejar variables binarias y multiclases, atributos numéricos y nominales y valores faltantes.</t>
+  </si>
+  <si>
+    <t>Constituye la clase para construir un bosque de árboles aleatorios o Forest of Random trees.</t>
+  </si>
+  <si>
+    <t>Clase para construir un árbol que considera K atributos elegidos al azar en cada nodo. No realiza poda. También tiene una opción que permite la estimación de probabilidades de clase (o media objetivo en el caso de regresión) basado en un conjunto de retención (backfitting).</t>
+  </si>
+  <si>
+    <t>Aprendizaje rápido con árboles de decisión. Construye un árbol de decisión/regresión utilizando la información de ganancia/varianza y la elimina utilizando poda de reducción de errores (con backfitting-ajuste posterior). Sólo ordena valores para atributos numéricos. Los valores faltantes se tratan dividiendo las instancias correspondientes en fragmentos (es decir, como en C4.5).</t>
+  </si>
+  <si>
+    <t>Clasificador envoltorio que dirige a incompatibles datos de entrenamientos y de prueba, mediante la construcción de un mapeo entre los datos de entrenamiento que un clasificador ha sido construido con la estructura de instancias de prueba entrantes. Los atributos del modelo que no se encuentran en las instancias entrantes reciben valores ausentes, también lo hace con los valores de atributo nominales entrantes que el clasificador no ha visto antes. Un nuevo clasificador puede ser entrenado o uno existente cargado desde un archivo.</t>
+  </si>
+  <si>
+    <t>MultiClassClassifierUpdateable constituye un metaclasificador para manejar conjuntos de datos multiclase con clasificadores de 2 clases. Este clasificador también es capaz de aplicar códigos de salida de corrección de errores para aumentar la precisión. El clasificador base debe ser un clasificador actualizable.</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1440,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1657,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -1661,7 +1701,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -1672,7 +1712,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -1683,7 +1723,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -1694,7 +1734,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="57" x14ac:dyDescent="0.2">
@@ -1705,7 +1745,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,7 +1756,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -1727,7 +1767,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="57" x14ac:dyDescent="0.2">
@@ -1738,150 +1778,150 @@
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>91</v>
+      <c r="C31" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="114" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
